--- a/data/pca/factorExposure/factorExposure_2010-05-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-05-14.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01693173537774376</v>
+        <v>-0.01722412325733602</v>
       </c>
       <c r="C2">
-        <v>0.00010397583667605</v>
+        <v>0.00101049243713137</v>
       </c>
       <c r="D2">
-        <v>0.0180285787207491</v>
+        <v>0.009422456703577312</v>
       </c>
       <c r="E2">
-        <v>-0.02211625222992609</v>
+        <v>-0.000301510999236947</v>
       </c>
       <c r="F2">
-        <v>0.0133693116874382</v>
+        <v>0.01231649793060049</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1222587356394123</v>
+        <v>-0.09415775114312173</v>
       </c>
       <c r="C4">
-        <v>0.09968622658825094</v>
+        <v>0.01743692797993087</v>
       </c>
       <c r="D4">
-        <v>-0.01932061387873759</v>
+        <v>0.08304526026979016</v>
       </c>
       <c r="E4">
-        <v>-0.01662953671287204</v>
+        <v>0.02967933368481781</v>
       </c>
       <c r="F4">
-        <v>0.04550876077003005</v>
+        <v>-0.03430785127415666</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1336925453020155</v>
+        <v>-0.15273916145622</v>
       </c>
       <c r="C6">
-        <v>0.06365016852896828</v>
+        <v>0.02474979810114728</v>
       </c>
       <c r="D6">
-        <v>0.002264796922075572</v>
+        <v>-0.02320389541822894</v>
       </c>
       <c r="E6">
-        <v>0.03338469478679743</v>
+        <v>0.009039823770162506</v>
       </c>
       <c r="F6">
-        <v>-0.001478199198533631</v>
+        <v>-0.04102960626522172</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07025651824624068</v>
+        <v>-0.06109474027646237</v>
       </c>
       <c r="C7">
-        <v>0.0709407770232689</v>
+        <v>-0.0001643518149941566</v>
       </c>
       <c r="D7">
-        <v>0.007434907037532668</v>
+        <v>0.05207676821687432</v>
       </c>
       <c r="E7">
-        <v>-0.03006686429803083</v>
+        <v>0.01638744423006969</v>
       </c>
       <c r="F7">
-        <v>0.006701124328413716</v>
+        <v>-0.0543478891315152</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.04428676800491988</v>
+        <v>-0.05898398657030658</v>
       </c>
       <c r="C8">
-        <v>0.03682922029778806</v>
+        <v>-0.01286543407890031</v>
       </c>
       <c r="D8">
-        <v>0.00198966248556048</v>
+        <v>0.03028167595767311</v>
       </c>
       <c r="E8">
-        <v>0.02884960370529215</v>
+        <v>0.01398795540704304</v>
       </c>
       <c r="F8">
-        <v>0.01412319157588565</v>
+        <v>0.02870304224336625</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08841292636049702</v>
+        <v>-0.07184460050952916</v>
       </c>
       <c r="C9">
-        <v>0.07746425778835826</v>
+        <v>0.01364538305199254</v>
       </c>
       <c r="D9">
-        <v>-0.0263843522857518</v>
+        <v>0.08264194613630883</v>
       </c>
       <c r="E9">
-        <v>-0.01290366434595577</v>
+        <v>0.02530101399206276</v>
       </c>
       <c r="F9">
-        <v>0.02385672999032712</v>
+        <v>-0.05625668426488936</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1281386894842058</v>
+        <v>-0.09370863488810162</v>
       </c>
       <c r="C10">
-        <v>-0.1685983685170183</v>
+        <v>0.01586529888960761</v>
       </c>
       <c r="D10">
-        <v>0.02546395602582805</v>
+        <v>-0.1707176198226425</v>
       </c>
       <c r="E10">
-        <v>-0.03353362746680676</v>
+        <v>-0.03627598012092322</v>
       </c>
       <c r="F10">
-        <v>0.01332494653194736</v>
+        <v>0.05224413017834836</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.07445161624765688</v>
+        <v>-0.08819072345557633</v>
       </c>
       <c r="C11">
-        <v>0.07127606352323888</v>
+        <v>0.01291670381574976</v>
       </c>
       <c r="D11">
-        <v>-0.03299897606184857</v>
+        <v>0.1131554001866959</v>
       </c>
       <c r="E11">
-        <v>0.008643847195133661</v>
+        <v>0.0466203376356759</v>
       </c>
       <c r="F11">
-        <v>0.02408934589809927</v>
+        <v>-0.02367583395389432</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.07060897099449508</v>
+        <v>-0.09354037557960719</v>
       </c>
       <c r="C12">
-        <v>0.07701776939710864</v>
+        <v>0.01088802115174473</v>
       </c>
       <c r="D12">
-        <v>-0.04904807550970014</v>
+        <v>0.1198128747212794</v>
       </c>
       <c r="E12">
-        <v>-0.02103848074082915</v>
+        <v>0.04603430406646601</v>
       </c>
       <c r="F12">
-        <v>-0.007809159892297331</v>
+        <v>-0.02361649524223336</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.0369043160535598</v>
+        <v>-0.04386732003224213</v>
       </c>
       <c r="C13">
-        <v>0.04077818049174693</v>
+        <v>0.004514211319008705</v>
       </c>
       <c r="D13">
-        <v>0.01657248341374829</v>
+        <v>0.0465818079453887</v>
       </c>
       <c r="E13">
-        <v>-0.0276292258579249</v>
+        <v>-0.01210559633436119</v>
       </c>
       <c r="F13">
-        <v>0.01256639376603857</v>
+        <v>-0.01564754794705257</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.03002163586228226</v>
+        <v>-0.0218669163771155</v>
       </c>
       <c r="C14">
-        <v>0.02755888846068126</v>
+        <v>0.01483438881529153</v>
       </c>
       <c r="D14">
-        <v>-0.02300256317625723</v>
+        <v>0.03244697217266226</v>
       </c>
       <c r="E14">
-        <v>-0.0004989183642315097</v>
+        <v>0.01886844628281811</v>
       </c>
       <c r="F14">
-        <v>-0.003468439993352414</v>
+        <v>-0.02075690221688452</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01847515124645278</v>
+        <v>-0.03217468598160486</v>
       </c>
       <c r="C15">
-        <v>0.02615280689964858</v>
+        <v>0.00566806856807682</v>
       </c>
       <c r="D15">
-        <v>0.06341812195396886</v>
+        <v>0.04521456206433479</v>
       </c>
       <c r="E15">
-        <v>-0.01712759510893375</v>
+        <v>0.009228464238317505</v>
       </c>
       <c r="F15">
-        <v>0.01815621182339652</v>
+        <v>-0.03159429426905302</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.08195469221075302</v>
+        <v>-0.07497877631537717</v>
       </c>
       <c r="C16">
-        <v>0.07757162511778568</v>
+        <v>0.004527520418469272</v>
       </c>
       <c r="D16">
-        <v>-0.04114300061339179</v>
+        <v>0.1153440240428323</v>
       </c>
       <c r="E16">
-        <v>0.02135893074988204</v>
+        <v>0.06164430020430714</v>
       </c>
       <c r="F16">
-        <v>0.01251796695962994</v>
+        <v>-0.03273152109733867</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02164854790555165</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003717878104819656</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.0207127061884902</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.01122499789137273</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.02331840960348239</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04110949793084225</v>
+        <v>-0.0613245680482962</v>
       </c>
       <c r="C20">
-        <v>0.02630826440785245</v>
+        <v>0.002198124810921106</v>
       </c>
       <c r="D20">
-        <v>0.02814825808823581</v>
+        <v>0.07224357016638105</v>
       </c>
       <c r="E20">
-        <v>-0.02065199287505147</v>
+        <v>0.05401695269570126</v>
       </c>
       <c r="F20">
-        <v>-0.01501002752680727</v>
+        <v>-0.02869809131396943</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.02567806871283798</v>
+        <v>-0.03925411937949392</v>
       </c>
       <c r="C21">
-        <v>0.01796083840058356</v>
+        <v>0.007846310454262314</v>
       </c>
       <c r="D21">
-        <v>-0.01481198820045944</v>
+        <v>0.03563225475845479</v>
       </c>
       <c r="E21">
-        <v>-0.002218411081032655</v>
+        <v>-0.008648941340938099</v>
       </c>
       <c r="F21">
-        <v>0.01114126154248933</v>
+        <v>0.0197510615542322</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.0594079580219106</v>
+        <v>-0.04258975170932785</v>
       </c>
       <c r="C22">
-        <v>0.03662742447285711</v>
+        <v>0.00028802844365438</v>
       </c>
       <c r="D22">
-        <v>0.6380211887105821</v>
+        <v>0.00157457350268703</v>
       </c>
       <c r="E22">
-        <v>-0.1079358443511357</v>
+        <v>0.02923900988477058</v>
       </c>
       <c r="F22">
-        <v>-0.1457522815912985</v>
+        <v>0.01268272581401502</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.06017245915458909</v>
+        <v>-0.04265522949385973</v>
       </c>
       <c r="C23">
-        <v>0.03862044377747671</v>
+        <v>0.0003144100707238303</v>
       </c>
       <c r="D23">
-        <v>0.6404366801118757</v>
+        <v>0.001762309270503233</v>
       </c>
       <c r="E23">
-        <v>-0.1076970350396101</v>
+        <v>0.02962334810235872</v>
       </c>
       <c r="F23">
-        <v>-0.1450405674426848</v>
+        <v>0.01214586862465488</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08079056828447401</v>
+        <v>-0.08119167681745712</v>
       </c>
       <c r="C24">
-        <v>0.07206807498081148</v>
+        <v>0.00476434274335079</v>
       </c>
       <c r="D24">
-        <v>-0.03690098835328717</v>
+        <v>0.116292622975411</v>
       </c>
       <c r="E24">
-        <v>0.004343790471149907</v>
+        <v>0.04927435284541962</v>
       </c>
       <c r="F24">
-        <v>0.006864692366824995</v>
+        <v>-0.02550160203239017</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.07993958845271176</v>
+        <v>-0.08557963177141138</v>
       </c>
       <c r="C25">
-        <v>0.06877865572667982</v>
+        <v>0.006715515266027565</v>
       </c>
       <c r="D25">
-        <v>-0.0518057114722795</v>
+        <v>0.1042710190693241</v>
       </c>
       <c r="E25">
-        <v>-0.006729494567382641</v>
+        <v>0.03217673348363786</v>
       </c>
       <c r="F25">
-        <v>0.00918165583279892</v>
+        <v>-0.03371505856259708</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.03882019242340244</v>
+        <v>-0.05565368649601277</v>
       </c>
       <c r="C26">
-        <v>0.001450828098207817</v>
+        <v>0.01560081876786231</v>
       </c>
       <c r="D26">
-        <v>0.01417776154036848</v>
+        <v>0.033553393784469</v>
       </c>
       <c r="E26">
-        <v>0.02253104106385827</v>
+        <v>0.02566271126431597</v>
       </c>
       <c r="F26">
-        <v>-0.05491618159795438</v>
+        <v>0.007246262494418916</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1573971333641065</v>
+        <v>-0.1399873963925839</v>
       </c>
       <c r="C28">
-        <v>-0.2693260521647353</v>
+        <v>0.0135783669243484</v>
       </c>
       <c r="D28">
-        <v>0.003110048278301736</v>
+        <v>-0.2692846222897207</v>
       </c>
       <c r="E28">
-        <v>0.06464428333810503</v>
+        <v>-0.06724905643602264</v>
       </c>
       <c r="F28">
-        <v>-0.01026792311677746</v>
+        <v>-0.03495151461563452</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.03002878305315113</v>
+        <v>-0.02702816971000398</v>
       </c>
       <c r="C29">
-        <v>0.02644988479227831</v>
+        <v>0.009181905273557967</v>
       </c>
       <c r="D29">
-        <v>-0.02525800055125823</v>
+        <v>0.03094633337800989</v>
       </c>
       <c r="E29">
-        <v>-0.02834396164577085</v>
+        <v>0.01152529728799764</v>
       </c>
       <c r="F29">
-        <v>-0.01761282474487798</v>
+        <v>0.009652507832282255</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.0952806615290878</v>
+        <v>-0.06427573219408782</v>
       </c>
       <c r="C30">
-        <v>0.0675601417433674</v>
+        <v>0.0063468199551707</v>
       </c>
       <c r="D30">
-        <v>-0.02976760154122706</v>
+        <v>0.08063303151618463</v>
       </c>
       <c r="E30">
-        <v>0.07188285019180561</v>
+        <v>0.02370921999121181</v>
       </c>
       <c r="F30">
-        <v>-0.1888359690357415</v>
+        <v>-0.1135909404476287</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.03215943501561239</v>
+        <v>-0.04873009849649832</v>
       </c>
       <c r="C31">
-        <v>0.05752649250068791</v>
+        <v>0.01519365941844889</v>
       </c>
       <c r="D31">
-        <v>-0.004320952683961632</v>
+        <v>0.02899739620201867</v>
       </c>
       <c r="E31">
-        <v>-0.02094823292782914</v>
+        <v>0.02755354996646816</v>
       </c>
       <c r="F31">
-        <v>0.01162752832139667</v>
+        <v>0.002726102194150169</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.05288683393973455</v>
+        <v>-0.0484236150571744</v>
       </c>
       <c r="C32">
-        <v>0.02290503258375128</v>
+        <v>0.0003641037724656963</v>
       </c>
       <c r="D32">
-        <v>-0.05398853630320922</v>
+        <v>0.02986513146133163</v>
       </c>
       <c r="E32">
-        <v>0.06888431347668535</v>
+        <v>0.0288274409684033</v>
       </c>
       <c r="F32">
-        <v>0.02310951286292938</v>
+        <v>-0.00169159392907806</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.08713522574921952</v>
+        <v>-0.09045551414322718</v>
       </c>
       <c r="C33">
-        <v>0.06398938469776645</v>
+        <v>0.009891733444595775</v>
       </c>
       <c r="D33">
-        <v>-0.03504778560177829</v>
+        <v>0.09214507474304219</v>
       </c>
       <c r="E33">
-        <v>0.0006677743607614161</v>
+        <v>0.04592734677702224</v>
       </c>
       <c r="F33">
-        <v>-0.002475930386782787</v>
+        <v>-0.04027242843554747</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06813720680077129</v>
+        <v>-0.0690850307075611</v>
       </c>
       <c r="C34">
-        <v>0.0562417808502608</v>
+        <v>0.01287859134553247</v>
       </c>
       <c r="D34">
-        <v>-0.0423029599163017</v>
+        <v>0.09692145328204123</v>
       </c>
       <c r="E34">
-        <v>0.008072150721873658</v>
+        <v>0.03436230049335594</v>
       </c>
       <c r="F34">
-        <v>0.01323909181695757</v>
+        <v>-0.04711927034037452</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.01183013827913358</v>
+        <v>-0.02414435992721648</v>
       </c>
       <c r="C35">
-        <v>0.01125735409584446</v>
+        <v>0.002665177256315972</v>
       </c>
       <c r="D35">
-        <v>0.0002632824364506916</v>
+        <v>0.01081560130386409</v>
       </c>
       <c r="E35">
-        <v>-0.01054647875451623</v>
+        <v>0.01110179375633271</v>
       </c>
       <c r="F35">
-        <v>-0.005391266027406174</v>
+        <v>-0.0118999875017713</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02190474275697725</v>
+        <v>-0.02443926023915704</v>
       </c>
       <c r="C36">
-        <v>0.01514251900017691</v>
+        <v>0.007205194272978262</v>
       </c>
       <c r="D36">
-        <v>0.01081478235373905</v>
+        <v>0.03798228571668014</v>
       </c>
       <c r="E36">
-        <v>0.006757117031534917</v>
+        <v>0.01663239069435484</v>
       </c>
       <c r="F36">
-        <v>-0.01362814216453136</v>
+        <v>-0.008299287991401448</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.01341370399253617</v>
+        <v>-0.002031545444080796</v>
       </c>
       <c r="C38">
-        <v>0.02931788937203708</v>
+        <v>0.0003543281079222428</v>
       </c>
       <c r="D38">
-        <v>0.01992801647946295</v>
+        <v>0.002252016724514243</v>
       </c>
       <c r="E38">
-        <v>-0.03686881532784146</v>
+        <v>0.002594390437213544</v>
       </c>
       <c r="F38">
-        <v>-0.06596172406550793</v>
+        <v>0.001300804076180878</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1108307444487229</v>
+        <v>-0.1101522706302755</v>
       </c>
       <c r="C39">
-        <v>0.0939572306960131</v>
+        <v>0.01843152454214041</v>
       </c>
       <c r="D39">
-        <v>-0.140154770248586</v>
+        <v>0.1492393662764933</v>
       </c>
       <c r="E39">
-        <v>0.02474955676208762</v>
+        <v>0.05764641760581715</v>
       </c>
       <c r="F39">
-        <v>-0.0839991403304451</v>
+        <v>-0.03405479911194262</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.02531074268337191</v>
+        <v>-0.03734820632536271</v>
       </c>
       <c r="C40">
-        <v>0.06393729260383638</v>
+        <v>0.007639495231432068</v>
       </c>
       <c r="D40">
-        <v>0.02489325838757735</v>
+        <v>0.03130165195909944</v>
       </c>
       <c r="E40">
-        <v>-0.06335897846158459</v>
+        <v>0.004401272430290061</v>
       </c>
       <c r="F40">
-        <v>0.01178423239993103</v>
+        <v>0.0192283944875623</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.03459193146513329</v>
+        <v>-0.02653876214937851</v>
       </c>
       <c r="C41">
-        <v>0.02462530638940248</v>
+        <v>0.00695535150276405</v>
       </c>
       <c r="D41">
-        <v>-0.0214789412758817</v>
+        <v>0.01066889886712438</v>
       </c>
       <c r="E41">
-        <v>-0.01789938455859309</v>
+        <v>0.0121354217355766</v>
       </c>
       <c r="F41">
-        <v>-0.01038970161024067</v>
+        <v>0.01028639464041342</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04364388315100101</v>
+        <v>-0.04194698779889097</v>
       </c>
       <c r="C43">
-        <v>0.03368612582206811</v>
+        <v>0.007113404687287786</v>
       </c>
       <c r="D43">
-        <v>0.00620276079216658</v>
+        <v>0.02075929949865904</v>
       </c>
       <c r="E43">
-        <v>-0.008707127375831585</v>
+        <v>0.02566491604412264</v>
       </c>
       <c r="F43">
-        <v>-0.03660487550899412</v>
+        <v>0.01140459175984187</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.106083800236058</v>
+        <v>-0.07332799120297419</v>
       </c>
       <c r="C44">
-        <v>0.113042914678405</v>
+        <v>0.02270951629034462</v>
       </c>
       <c r="D44">
-        <v>0.07659825642218737</v>
+        <v>0.09967142809843912</v>
       </c>
       <c r="E44">
-        <v>-0.04387504215464193</v>
+        <v>0.0681773988025708</v>
       </c>
       <c r="F44">
-        <v>3.17968774990404e-05</v>
+        <v>-0.173738976372837</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.026816850986698</v>
+        <v>-0.02266557004988967</v>
       </c>
       <c r="C46">
-        <v>0.005894514386957491</v>
+        <v>0.00411370322521826</v>
       </c>
       <c r="D46">
-        <v>0.02556344475467332</v>
+        <v>0.01124324969246039</v>
       </c>
       <c r="E46">
-        <v>-0.0330840467428687</v>
+        <v>0.02324586191025888</v>
       </c>
       <c r="F46">
-        <v>-0.0346288937791063</v>
+        <v>0.001339606820634286</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.03929334000220368</v>
+        <v>-0.05220690518283304</v>
       </c>
       <c r="C47">
-        <v>0.02763448424368401</v>
+        <v>0.003328751617397888</v>
       </c>
       <c r="D47">
-        <v>-0.003698378705100184</v>
+        <v>0.01221495478894362</v>
       </c>
       <c r="E47">
-        <v>-0.01237511877457239</v>
+        <v>0.02149656421637624</v>
       </c>
       <c r="F47">
-        <v>-0.003266616572312171</v>
+        <v>0.04556056391897426</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.03937384809116908</v>
+        <v>-0.04754075276064193</v>
       </c>
       <c r="C48">
-        <v>0.01203995881516801</v>
+        <v>0.003257082992575913</v>
       </c>
       <c r="D48">
-        <v>-0.01535175049879947</v>
+        <v>0.04657024922575132</v>
       </c>
       <c r="E48">
-        <v>-0.0128073300430259</v>
+        <v>-0.005565308266836447</v>
       </c>
       <c r="F48">
-        <v>0.01898310300469311</v>
+        <v>-0.01325040503048642</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.220930667634196</v>
+        <v>-0.2026386747374422</v>
       </c>
       <c r="C49">
-        <v>-7.009122991153571e-05</v>
+        <v>0.01704924089563345</v>
       </c>
       <c r="D49">
-        <v>-0.04225232125704403</v>
+        <v>-0.009530512533831624</v>
       </c>
       <c r="E49">
-        <v>-0.0974274254135085</v>
+        <v>0.03723235543336784</v>
       </c>
       <c r="F49">
-        <v>0.0130340683868253</v>
+        <v>-0.03055249392076232</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03957772292368932</v>
+        <v>-0.04849075609337065</v>
       </c>
       <c r="C50">
-        <v>0.03051009517452165</v>
+        <v>0.01118916285650612</v>
       </c>
       <c r="D50">
-        <v>-0.01952968114097627</v>
+        <v>0.02614646182753124</v>
       </c>
       <c r="E50">
-        <v>-0.00238594393306214</v>
+        <v>0.02873939458631613</v>
       </c>
       <c r="F50">
-        <v>-0.03009360712420356</v>
+        <v>-0.007966229512250757</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.02227247529394967</v>
+        <v>-0.003024320473183641</v>
       </c>
       <c r="C51">
-        <v>-0.009889821385946664</v>
+        <v>0.0007588697785528475</v>
       </c>
       <c r="D51">
-        <v>0.002733521234988733</v>
+        <v>-0.002147118156797831</v>
       </c>
       <c r="E51">
-        <v>-0.01790036016271711</v>
+        <v>0.0006086785694318358</v>
       </c>
       <c r="F51">
-        <v>0.02606758964070445</v>
+        <v>-0.005682524013117643</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.07555870149895755</v>
+        <v>-0.1445569298424874</v>
       </c>
       <c r="C52">
-        <v>0.06693345160833683</v>
+        <v>0.01327004214519486</v>
       </c>
       <c r="D52">
-        <v>-0.02106689158996875</v>
+        <v>0.05012392638883793</v>
       </c>
       <c r="E52">
-        <v>-0.004606871130502775</v>
+        <v>0.02080170139886117</v>
       </c>
       <c r="F52">
-        <v>-0.05210475761474935</v>
+        <v>-0.03481432087063324</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1586117479032116</v>
+        <v>-0.1737250931365995</v>
       </c>
       <c r="C53">
-        <v>0.06219902054678859</v>
+        <v>0.01603154038847934</v>
       </c>
       <c r="D53">
-        <v>0.01130215074650448</v>
+        <v>0.01361347449881233</v>
       </c>
       <c r="E53">
-        <v>-0.04674607380587876</v>
+        <v>0.03635362686037574</v>
       </c>
       <c r="F53">
-        <v>-0.07222244785222674</v>
+        <v>-0.06740221756903265</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.0593996545341377</v>
+        <v>-0.0226180461479426</v>
       </c>
       <c r="C54">
-        <v>0.070342968700926</v>
+        <v>0.01274365338179606</v>
       </c>
       <c r="D54">
-        <v>-0.00118453755531192</v>
+        <v>0.03383863402801023</v>
       </c>
       <c r="E54">
-        <v>-0.01627595008367844</v>
+        <v>0.01517437944742768</v>
       </c>
       <c r="F54">
-        <v>0.03331890199343623</v>
+        <v>0.003198508015006243</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08544995938770084</v>
+        <v>-0.1147845091175394</v>
       </c>
       <c r="C55">
-        <v>0.0530358675985163</v>
+        <v>0.01471453114467424</v>
       </c>
       <c r="D55">
-        <v>-0.03450459321649991</v>
+        <v>0.01260703411844265</v>
       </c>
       <c r="E55">
-        <v>-0.02107064845025032</v>
+        <v>0.03056798277581704</v>
       </c>
       <c r="F55">
-        <v>-0.01909217574121389</v>
+        <v>-0.05015409048245262</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1471681286049645</v>
+        <v>-0.177732679223812</v>
       </c>
       <c r="C56">
-        <v>0.08224561559116741</v>
+        <v>0.01349327539187529</v>
       </c>
       <c r="D56">
-        <v>-0.03034956062742443</v>
+        <v>0.007923922183036163</v>
       </c>
       <c r="E56">
-        <v>-0.07558556609213829</v>
+        <v>0.04031708057221432</v>
       </c>
       <c r="F56">
-        <v>-0.04773925229718087</v>
+        <v>-0.03899516298306583</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04872627676860358</v>
+        <v>-0.0468291249166998</v>
       </c>
       <c r="C58">
-        <v>0.03502697015739797</v>
+        <v>0.002954933219924045</v>
       </c>
       <c r="D58">
-        <v>0.03628060717977666</v>
+        <v>0.06352292719848981</v>
       </c>
       <c r="E58">
-        <v>-0.02374542211606545</v>
+        <v>0.02171582941717433</v>
       </c>
       <c r="F58">
-        <v>-0.03066386264479812</v>
+        <v>0.05058844462905484</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.2132038117572452</v>
+        <v>-0.1708905064348505</v>
       </c>
       <c r="C59">
-        <v>-0.232611771386709</v>
+        <v>0.01518786004943884</v>
       </c>
       <c r="D59">
-        <v>-0.03964393989207957</v>
+        <v>-0.2278997138424229</v>
       </c>
       <c r="E59">
-        <v>0.01802968766890219</v>
+        <v>-0.04865814710400952</v>
       </c>
       <c r="F59">
-        <v>0.08558694421793157</v>
+        <v>0.03242294762129687</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2225330421574754</v>
+        <v>-0.2378004873548031</v>
       </c>
       <c r="C60">
-        <v>0.1094211023074373</v>
+        <v>-0.004184418560296621</v>
       </c>
       <c r="D60">
-        <v>-0.08608166686969913</v>
+        <v>0.04960618008703312</v>
       </c>
       <c r="E60">
-        <v>-0.1309075202823502</v>
+        <v>0.008660303225883879</v>
       </c>
       <c r="F60">
-        <v>-0.01499167350653377</v>
+        <v>0.03608455421551256</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.1079295050390176</v>
+        <v>-0.08496395768350966</v>
       </c>
       <c r="C61">
-        <v>0.06428292386629339</v>
+        <v>0.01436128423114835</v>
       </c>
       <c r="D61">
-        <v>-0.08632986198879396</v>
+        <v>0.1099788518900542</v>
       </c>
       <c r="E61">
-        <v>-0.01282819616502946</v>
+        <v>0.03955813827920052</v>
       </c>
       <c r="F61">
-        <v>-0.03680738248722364</v>
+        <v>-0.01900343640736935</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1436610904291591</v>
+        <v>-0.170476360669876</v>
       </c>
       <c r="C62">
-        <v>0.06602733829506276</v>
+        <v>0.01746430438537593</v>
       </c>
       <c r="D62">
-        <v>-0.002628919077888035</v>
+        <v>0.01166870277164481</v>
       </c>
       <c r="E62">
-        <v>-0.05855558214046191</v>
+        <v>0.03769814922374953</v>
       </c>
       <c r="F62">
-        <v>-0.04686408186510287</v>
+        <v>-0.02010915700532295</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04605318942601187</v>
+        <v>-0.04290108977800569</v>
       </c>
       <c r="C63">
-        <v>0.02881933998404369</v>
+        <v>0.004006040011341091</v>
       </c>
       <c r="D63">
-        <v>-0.009313147380343752</v>
+        <v>0.04845070537660798</v>
       </c>
       <c r="E63">
-        <v>0.02685683695391767</v>
+        <v>0.02005009776165979</v>
       </c>
       <c r="F63">
-        <v>-0.002399706989061084</v>
+        <v>-0.00944963706917612</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09386492122868667</v>
+        <v>-0.1126489603396692</v>
       </c>
       <c r="C64">
-        <v>0.05362212384782251</v>
+        <v>0.01207808277450472</v>
       </c>
       <c r="D64">
-        <v>-0.00956653847961089</v>
+        <v>0.04106584019180552</v>
       </c>
       <c r="E64">
-        <v>-0.07016032916230415</v>
+        <v>0.02036815065282728</v>
       </c>
       <c r="F64">
-        <v>-0.05635386204422593</v>
+        <v>-0.02037073657329307</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.124201069675347</v>
+        <v>-0.1442811134459897</v>
       </c>
       <c r="C65">
-        <v>0.05344892921818766</v>
+        <v>0.03128454107319316</v>
       </c>
       <c r="D65">
-        <v>-0.01661781243244318</v>
+        <v>-0.04481314638486641</v>
       </c>
       <c r="E65">
-        <v>0.04453200162714543</v>
+        <v>0.0005508853097874836</v>
       </c>
       <c r="F65">
-        <v>-0.04911221459527867</v>
+        <v>-0.04281432537299047</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1252198273367878</v>
+        <v>-0.131765399343337</v>
       </c>
       <c r="C66">
-        <v>0.1177634855084178</v>
+        <v>0.01592018415884191</v>
       </c>
       <c r="D66">
-        <v>-0.1317384391833418</v>
+        <v>0.1368841288503206</v>
       </c>
       <c r="E66">
-        <v>0.002848797100825518</v>
+        <v>0.06442413512397195</v>
       </c>
       <c r="F66">
-        <v>-0.1205242416005708</v>
+        <v>-0.03949548905154673</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05933833317882501</v>
+        <v>-0.06315332838188298</v>
       </c>
       <c r="C67">
-        <v>0.03092381989082359</v>
+        <v>0.003607181033261729</v>
       </c>
       <c r="D67">
-        <v>0.03224711286636697</v>
+        <v>0.05474927291377803</v>
       </c>
       <c r="E67">
-        <v>-0.01610574755322705</v>
+        <v>0.02009129958637825</v>
       </c>
       <c r="F67">
-        <v>-0.05060514826201246</v>
+        <v>0.04296205228583968</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.132533224561134</v>
+        <v>-0.114411272634859</v>
       </c>
       <c r="C68">
-        <v>-0.2428599572410276</v>
+        <v>0.02458235424802139</v>
       </c>
       <c r="D68">
-        <v>-0.009469817389834809</v>
+        <v>-0.266605819746408</v>
       </c>
       <c r="E68">
-        <v>0.06689625457984152</v>
+        <v>-0.08533159102196795</v>
       </c>
       <c r="F68">
-        <v>0.0001208680964973773</v>
+        <v>-0.04053302848704578</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03910065217741875</v>
+        <v>-0.03966564157790616</v>
       </c>
       <c r="C69">
-        <v>-0.007063177682872152</v>
+        <v>0.001120289989035356</v>
       </c>
       <c r="D69">
-        <v>0.000609036653960603</v>
+        <v>0.009142091032038259</v>
       </c>
       <c r="E69">
-        <v>-0.007199962543123365</v>
+        <v>0.02406563412663372</v>
       </c>
       <c r="F69">
-        <v>-0.0383720623879017</v>
+        <v>0.01364140452156581</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.03872905904240561</v>
+        <v>-0.06379681150061103</v>
       </c>
       <c r="C70">
-        <v>0.01390545340453589</v>
+        <v>-0.027609076041911</v>
       </c>
       <c r="D70">
-        <v>-0.03888538276024354</v>
+        <v>0.02631712067979278</v>
       </c>
       <c r="E70">
-        <v>-0.02097621334137388</v>
+        <v>-0.04888309410297295</v>
       </c>
       <c r="F70">
-        <v>-0.05899741764308973</v>
+        <v>0.3027561049724949</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1502662067019889</v>
+        <v>-0.1331895004744602</v>
       </c>
       <c r="C71">
-        <v>-0.2636698882466936</v>
+        <v>0.02873114739763362</v>
       </c>
       <c r="D71">
-        <v>-0.001317165557237916</v>
+        <v>-0.28224673443747</v>
       </c>
       <c r="E71">
-        <v>0.03393841787025452</v>
+        <v>-0.09330745958954495</v>
       </c>
       <c r="F71">
-        <v>-0.04724947295987021</v>
+        <v>-0.04366228499008383</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.14249276470427</v>
+        <v>-0.1387965570600103</v>
       </c>
       <c r="C72">
-        <v>0.02840978916681116</v>
+        <v>0.02441012161597359</v>
       </c>
       <c r="D72">
-        <v>-0.003616049625118816</v>
+        <v>0.004412048793884927</v>
       </c>
       <c r="E72">
-        <v>-0.01458584008880651</v>
+        <v>0.04346119681053066</v>
       </c>
       <c r="F72">
-        <v>-0.04247778567271253</v>
+        <v>-0.02305807143825912</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2122007493768229</v>
+        <v>-0.2052825250236043</v>
       </c>
       <c r="C73">
-        <v>0.03559868499436318</v>
+        <v>0.01152007333736425</v>
       </c>
       <c r="D73">
-        <v>-0.1257467072682991</v>
+        <v>0.01655742715380557</v>
       </c>
       <c r="E73">
-        <v>-0.1558721972195253</v>
+        <v>0.06354591652738782</v>
       </c>
       <c r="F73">
-        <v>-0.07159856268730604</v>
+        <v>-0.03039896870341809</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1101200185040804</v>
+        <v>-0.09439559506433876</v>
       </c>
       <c r="C74">
-        <v>0.09380399983465693</v>
+        <v>0.01200999716935173</v>
       </c>
       <c r="D74">
-        <v>-0.01042987601612851</v>
+        <v>0.02355260600759754</v>
       </c>
       <c r="E74">
-        <v>-0.02481609885351269</v>
+        <v>0.04945656283802485</v>
       </c>
       <c r="F74">
-        <v>-0.0843606677032113</v>
+        <v>-0.04259632056291243</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1014734311152567</v>
+        <v>-0.1301002113273088</v>
       </c>
       <c r="C75">
-        <v>0.06711715036273184</v>
+        <v>0.026288445486511</v>
       </c>
       <c r="D75">
-        <v>-0.008945774698076048</v>
+        <v>0.03345997616310546</v>
       </c>
       <c r="E75">
-        <v>-0.01910002645637844</v>
+        <v>0.05990516794428023</v>
       </c>
       <c r="F75">
-        <v>0.01693760152043787</v>
+        <v>-0.01260994909386379</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.03922352584667863</v>
+        <v>-0.005398094334937942</v>
       </c>
       <c r="C76">
-        <v>0.01313008354868212</v>
+        <v>0.001232160000497967</v>
       </c>
       <c r="D76">
-        <v>-0.007234815509672175</v>
+        <v>-0.0005074264517651337</v>
       </c>
       <c r="E76">
-        <v>-0.03346542252322277</v>
+        <v>0.003669132114663049</v>
       </c>
       <c r="F76">
-        <v>0.008208435353999868</v>
+        <v>-0.004401789435201676</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07021676071291598</v>
+        <v>-0.07917707437827962</v>
       </c>
       <c r="C77">
-        <v>0.03816622001892631</v>
+        <v>0.01053664085956258</v>
       </c>
       <c r="D77">
-        <v>-0.03184524737145025</v>
+        <v>0.1095523706627062</v>
       </c>
       <c r="E77">
-        <v>-0.03495393897106529</v>
+        <v>0.0357295244947767</v>
       </c>
       <c r="F77">
-        <v>0.02870105269626789</v>
+        <v>-0.03196871056297316</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1342191421201004</v>
+        <v>-0.1067497784497964</v>
       </c>
       <c r="C78">
-        <v>0.1279408365272988</v>
+        <v>0.04227931301677895</v>
       </c>
       <c r="D78">
-        <v>0.1768669606904356</v>
+        <v>0.1192480881932055</v>
       </c>
       <c r="E78">
-        <v>0.07854476905425646</v>
+        <v>0.08609141187664836</v>
       </c>
       <c r="F78">
-        <v>0.8320830463890753</v>
+        <v>-0.07558127484684629</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1328822457588457</v>
+        <v>-0.1644283693822071</v>
       </c>
       <c r="C79">
-        <v>0.07570464002052521</v>
+        <v>0.02033399332048877</v>
       </c>
       <c r="D79">
-        <v>0.001719330861929354</v>
+        <v>0.01915575458761151</v>
       </c>
       <c r="E79">
-        <v>-0.05419879919102422</v>
+        <v>0.04766539865832196</v>
       </c>
       <c r="F79">
-        <v>-0.0391858267491897</v>
+        <v>-0.01059147298651032</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.0730416706236882</v>
+        <v>-0.0801136050442707</v>
       </c>
       <c r="C80">
-        <v>0.05433869637020485</v>
+        <v>-0.0004723214295020901</v>
       </c>
       <c r="D80">
-        <v>-0.0785241236272182</v>
+        <v>0.05723310199224256</v>
       </c>
       <c r="E80">
-        <v>0.003010216444635485</v>
+        <v>0.03295750631303287</v>
       </c>
       <c r="F80">
-        <v>-0.03188297938201408</v>
+        <v>0.01586119317682611</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1322749748455049</v>
+        <v>-0.123731166983641</v>
       </c>
       <c r="C81">
-        <v>0.08602539756255018</v>
+        <v>0.03024655194396196</v>
       </c>
       <c r="D81">
-        <v>-0.0008703509203144852</v>
+        <v>0.01916640486710858</v>
       </c>
       <c r="E81">
-        <v>-0.04557414139089764</v>
+        <v>0.0597853553538629</v>
       </c>
       <c r="F81">
-        <v>-0.01188009988694217</v>
+        <v>-0.003405636687477243</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1366020055895178</v>
+        <v>-0.1639141296630358</v>
       </c>
       <c r="C82">
-        <v>0.06091602767305099</v>
+        <v>0.02093379316431946</v>
       </c>
       <c r="D82">
-        <v>-0.0194344952964999</v>
+        <v>0.01643517668739927</v>
       </c>
       <c r="E82">
-        <v>-0.02719120466274306</v>
+        <v>0.03456441726727089</v>
       </c>
       <c r="F82">
-        <v>-0.06606284629975209</v>
+        <v>-0.06089413779645479</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.08439963157738083</v>
+        <v>-0.06431689505957738</v>
       </c>
       <c r="C83">
-        <v>0.1586502996062562</v>
+        <v>0.003824916241517327</v>
       </c>
       <c r="D83">
-        <v>-0.01821206892286228</v>
+        <v>0.04971469618293584</v>
       </c>
       <c r="E83">
-        <v>0.001519477206947654</v>
+        <v>0.005376219056974695</v>
       </c>
       <c r="F83">
-        <v>-0.01422192157951072</v>
+        <v>0.04124490311470468</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05728068633191064</v>
+        <v>-0.05961651665887465</v>
       </c>
       <c r="C84">
-        <v>-0.1017416434524738</v>
+        <v>0.01147065752908164</v>
       </c>
       <c r="D84">
-        <v>-0.04458516095333678</v>
+        <v>0.06077762324161128</v>
       </c>
       <c r="E84">
-        <v>0.001252484765026672</v>
+        <v>-0.001043017565604756</v>
       </c>
       <c r="F84">
-        <v>0.1815802785140715</v>
+        <v>-0.01183631799264111</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1202123651771212</v>
+        <v>-0.1385599846724297</v>
       </c>
       <c r="C85">
-        <v>0.05291582435665687</v>
+        <v>0.02572635034484187</v>
       </c>
       <c r="D85">
-        <v>-0.009890130552905357</v>
+        <v>0.01469354114031513</v>
       </c>
       <c r="E85">
-        <v>-0.06895259536661895</v>
+        <v>0.04055983551707371</v>
       </c>
       <c r="F85">
-        <v>-0.03825222234059939</v>
+        <v>-0.04506295790694775</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.08243300587596986</v>
+        <v>-0.09795351252882087</v>
       </c>
       <c r="C86">
-        <v>0.006692527287753896</v>
+        <v>-0.007010049846470976</v>
       </c>
       <c r="D86">
-        <v>4.811516518015837e-05</v>
+        <v>0.02178204491210279</v>
       </c>
       <c r="E86">
-        <v>-0.1615021125459119</v>
+        <v>0.1390215651059725</v>
       </c>
       <c r="F86">
-        <v>0.2617353761094934</v>
+        <v>0.8531926419867986</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1214436163032909</v>
+        <v>-0.09911061703456943</v>
       </c>
       <c r="C87">
-        <v>0.1333541682850944</v>
+        <v>0.02519678565110038</v>
       </c>
       <c r="D87">
-        <v>0.002945212480255911</v>
+        <v>0.07759694427913365</v>
       </c>
       <c r="E87">
-        <v>-0.07582897998312342</v>
+        <v>-0.05096028970397769</v>
       </c>
       <c r="F87">
-        <v>0.03207519595458647</v>
+        <v>-0.07979742577402131</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05293724290615393</v>
+        <v>-0.06204620929993897</v>
       </c>
       <c r="C88">
-        <v>0.05423539479020313</v>
+        <v>0.003312766703333584</v>
       </c>
       <c r="D88">
-        <v>-0.04453800272045323</v>
+        <v>0.05343428466924247</v>
       </c>
       <c r="E88">
-        <v>-0.03007373168962606</v>
+        <v>0.0272765708450459</v>
       </c>
       <c r="F88">
-        <v>-0.04436513271837952</v>
+        <v>-0.009206977190398289</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.2164080919955089</v>
+        <v>-0.133894204808634</v>
       </c>
       <c r="C89">
-        <v>-0.3632504746851571</v>
+        <v>0.006996874411126334</v>
       </c>
       <c r="D89">
-        <v>0.06664923438022115</v>
+        <v>-0.2625167509346841</v>
       </c>
       <c r="E89">
-        <v>0.01755847772967207</v>
+        <v>-0.09109354832274155</v>
       </c>
       <c r="F89">
-        <v>0.01208634374290269</v>
+        <v>-0.025519599562751</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1628876215298408</v>
+        <v>-0.1445761179691407</v>
       </c>
       <c r="C90">
-        <v>-0.2552574588738576</v>
+        <v>0.02429120716517271</v>
       </c>
       <c r="D90">
-        <v>0.000349800197090933</v>
+        <v>-0.270164450305691</v>
       </c>
       <c r="E90">
-        <v>0.0216464255740569</v>
+        <v>-0.1065592807107563</v>
       </c>
       <c r="F90">
-        <v>-0.03999648480479112</v>
+        <v>-0.02665717450735307</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.07743611842702738</v>
+        <v>-0.1186616316878953</v>
       </c>
       <c r="C91">
-        <v>0.05417937324785833</v>
+        <v>0.01658475077773016</v>
       </c>
       <c r="D91">
-        <v>-0.01367288605797813</v>
+        <v>-0.006312559560854473</v>
       </c>
       <c r="E91">
-        <v>-0.04434402508396103</v>
+        <v>0.05719004872559749</v>
       </c>
       <c r="F91">
-        <v>-0.009592761050006891</v>
+        <v>0.02072537408057066</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1842723868913875</v>
+        <v>-0.1481521468252895</v>
       </c>
       <c r="C92">
-        <v>-0.2940351699975359</v>
+        <v>0.01608325098916858</v>
       </c>
       <c r="D92">
-        <v>0.03739805151737342</v>
+        <v>-0.3015907518340016</v>
       </c>
       <c r="E92">
-        <v>0.04183733572458332</v>
+        <v>-0.102058551034979</v>
       </c>
       <c r="F92">
-        <v>0.01568449600789146</v>
+        <v>-0.02349763845206356</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.163629856187037</v>
+        <v>-0.1488072038809877</v>
       </c>
       <c r="C93">
-        <v>-0.3143983011014898</v>
+        <v>0.0207502121899583</v>
       </c>
       <c r="D93">
-        <v>-0.03631433047974321</v>
+        <v>-0.2723844809879966</v>
       </c>
       <c r="E93">
-        <v>0.03075062169501459</v>
+        <v>-0.07260628918627533</v>
       </c>
       <c r="F93">
-        <v>-0.03089451782414861</v>
+        <v>-0.01990793006166416</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1292163898706509</v>
+        <v>-0.1335609863984399</v>
       </c>
       <c r="C94">
-        <v>0.07332890999253705</v>
+        <v>0.02371797145018217</v>
       </c>
       <c r="D94">
-        <v>0.004468321384137745</v>
+        <v>0.0466216139100618</v>
       </c>
       <c r="E94">
-        <v>-0.04171669377213252</v>
+        <v>0.06131922999802859</v>
       </c>
       <c r="F94">
-        <v>-0.02217318763470503</v>
+        <v>-0.03071321973785697</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1152120563388216</v>
+        <v>-0.1257100989764119</v>
       </c>
       <c r="C95">
-        <v>0.05295524334422287</v>
+        <v>0.005639480531330324</v>
       </c>
       <c r="D95">
-        <v>0.01481266233579199</v>
+        <v>0.09161119664978278</v>
       </c>
       <c r="E95">
-        <v>-0.03748880099551322</v>
+        <v>0.04414102871234619</v>
       </c>
       <c r="F95">
-        <v>0.08984779315942043</v>
+        <v>0.01161100422070737</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0.004391072082082113</v>
+        <v>-0.09775102527832476</v>
       </c>
       <c r="C96">
-        <v>0.009101940220654784</v>
+        <v>-0.9890378525279716</v>
       </c>
       <c r="D96">
-        <v>0.0009467704814211328</v>
+        <v>-0.02429561567289125</v>
       </c>
       <c r="E96">
-        <v>-0.003715953245581632</v>
+        <v>0.0590662750033913</v>
       </c>
       <c r="F96">
-        <v>0.02387868882966899</v>
+        <v>-0.04841584316866369</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1757414509553575</v>
+        <v>-0.1867617097419783</v>
       </c>
       <c r="C97">
-        <v>0.1817256770133589</v>
+        <v>-0.0116419389067</v>
       </c>
       <c r="D97">
-        <v>0.1131585431521313</v>
+        <v>-0.008107849873097046</v>
       </c>
       <c r="E97">
-        <v>0.8861407569482362</v>
+        <v>0.01550523628868176</v>
       </c>
       <c r="F97">
-        <v>-0.07287658105442611</v>
+        <v>0.1749283014702003</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2250673139423531</v>
+        <v>-0.2044386416531496</v>
       </c>
       <c r="C98">
-        <v>0.05221074484964565</v>
+        <v>0.006801573807506928</v>
       </c>
       <c r="D98">
-        <v>0.07958456079768984</v>
+        <v>0.01381512931851246</v>
       </c>
       <c r="E98">
-        <v>-0.02646439219607999</v>
+        <v>-0.09365667091704281</v>
       </c>
       <c r="F98">
-        <v>0.04828666669036211</v>
+        <v>0.1280661550881965</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05985845011133912</v>
+        <v>-0.05703610483011996</v>
       </c>
       <c r="C99">
-        <v>0.02447038063677361</v>
+        <v>-0.003457788061128281</v>
       </c>
       <c r="D99">
-        <v>0.005043460610643033</v>
+        <v>0.03508077265839352</v>
       </c>
       <c r="E99">
-        <v>-0.02726935072649269</v>
+        <v>0.02630164015503587</v>
       </c>
       <c r="F99">
-        <v>0.001361191251073427</v>
+        <v>-0.004021772300122644</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.0006152734267000071</v>
+        <v>-0.1241399834384767</v>
       </c>
       <c r="C100">
-        <v>-0.004094517075459523</v>
+        <v>-0.04909364677580243</v>
       </c>
       <c r="D100">
-        <v>0.005100042800028161</v>
+        <v>0.3371643464272875</v>
       </c>
       <c r="E100">
-        <v>0.1268840360947988</v>
+        <v>-0.90048656416508</v>
       </c>
       <c r="F100">
-        <v>-0.04224865717546206</v>
+        <v>0.05973353339498339</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.0296020255063353</v>
+        <v>-0.0269626428524485</v>
       </c>
       <c r="C101">
-        <v>0.02693542208692283</v>
+        <v>0.009184136264048577</v>
       </c>
       <c r="D101">
-        <v>-0.02632603951181476</v>
+        <v>0.03068467852154066</v>
       </c>
       <c r="E101">
-        <v>-0.02844715862210169</v>
+        <v>0.01106592195999686</v>
       </c>
       <c r="F101">
-        <v>-0.01564321758633562</v>
+        <v>0.01171179635582972</v>
       </c>
     </row>
     <row r="102" spans="1:6">
